--- a/examples/template/excel_template.xlsx
+++ b/examples/template/excel_template.xlsx
@@ -115,7 +115,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -162,10 +168,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -490,7 +496,7 @@
     <col min="6" max="6" style="4" width="16.862142857142857" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="4" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="27.005" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="5" width="16.14785714285714" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="4" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="12" max="12" style="4" width="14.862142857142858" customWidth="1" bestFit="1"/>
@@ -534,7 +540,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -572,7 +578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -610,7 +616,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -648,7 +654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -686,7 +692,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -724,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
